--- a/data/trans_orig/P02F-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P02F-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>689305</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>678895</v>
+        <v>680000</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>693530</v>
+        <v>694018</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9878671355606944</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9729482539633671</v>
+        <v>0.9745315192590612</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9939218192002895</v>
+        <v>0.9946216152907427</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>612</v>
@@ -763,19 +763,19 @@
         <v>655669</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>640879</v>
+        <v>643044</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>665986</v>
+        <v>666146</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9460343725060983</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9246943510702027</v>
+        <v>0.9278180754169985</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.960920897680785</v>
+        <v>0.9611504880566173</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1272</v>
@@ -784,19 +784,19 @@
         <v>1344974</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1328787</v>
+        <v>1329384</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1357210</v>
+        <v>1357271</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9670214293180055</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9553829921555566</v>
+        <v>0.9558121222476244</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9758187673952046</v>
+        <v>0.9758630892787571</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>8466</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4241</v>
+        <v>3753</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18876</v>
+        <v>17771</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01213286443930561</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006078180799710373</v>
+        <v>0.005378384709257075</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02705174603663164</v>
+        <v>0.02546848074093827</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -834,19 +834,19 @@
         <v>37402</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27085</v>
+        <v>26925</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>52192</v>
+        <v>50027</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05396562749390169</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0390791023192148</v>
+        <v>0.03884951194338263</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0753056489297967</v>
+        <v>0.07218192458300145</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>43</v>
@@ -855,19 +855,19 @@
         <v>45868</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33632</v>
+        <v>33571</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>62055</v>
+        <v>61458</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03297857068199454</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02418123260479542</v>
+        <v>0.02413691072124297</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0446170078444434</v>
+        <v>0.04418787775237583</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>996577</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>984673</v>
+        <v>984963</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1003691</v>
+        <v>1004370</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9820990227713013</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9703673679206037</v>
+        <v>0.970653623291809</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9891099620406917</v>
+        <v>0.9897791057080285</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>903</v>
@@ -980,19 +980,19 @@
         <v>990186</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>974415</v>
+        <v>974343</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1000573</v>
+        <v>1000755</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9642686217311537</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9489097250575729</v>
+        <v>0.9488401143673145</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9743831722611763</v>
+        <v>0.9745605518230736</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1820</v>
@@ -1001,19 +1001,19 @@
         <v>1986763</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1967594</v>
+        <v>1969882</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1999894</v>
+        <v>1999893</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9731308236271016</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9637415898377394</v>
+        <v>0.9648620634422816</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9795625072228802</v>
+        <v>0.9795619848054696</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>18165</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11051</v>
+        <v>10372</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30069</v>
+        <v>29779</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01790097722869866</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01089003795930837</v>
+        <v>0.01022089429197149</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0296326320793968</v>
+        <v>0.02934637670819082</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>33</v>
@@ -1051,19 +1051,19 @@
         <v>36692</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>26305</v>
+        <v>26123</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>52463</v>
+        <v>52535</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03573137826884633</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02561682773882367</v>
+        <v>0.02543944817692639</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05109027494242701</v>
+        <v>0.0511598856326852</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>49</v>
@@ -1072,19 +1072,19 @@
         <v>54857</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>41726</v>
+        <v>41727</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>74026</v>
+        <v>71738</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0268691763728984</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02043749277711978</v>
+        <v>0.02043801519453033</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03625841016226058</v>
+        <v>0.03513793655771828</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>743763</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>735546</v>
+        <v>735204</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>748788</v>
+        <v>748620</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9872124869054039</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9763057400049004</v>
+        <v>0.9758514104834584</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9938826521948372</v>
+        <v>0.9936588275597541</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>678</v>
@@ -1197,19 +1197,19 @@
         <v>749403</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>739150</v>
+        <v>738479</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>758807</v>
+        <v>757471</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.96808265221421</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.954837468623973</v>
+        <v>0.9539702011257867</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9802303075281079</v>
+        <v>0.9785042270779657</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1354</v>
@@ -1218,19 +1218,19 @@
         <v>1493167</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1480410</v>
+        <v>1479108</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1503272</v>
+        <v>1503364</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9775178632626517</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9691660938756941</v>
+        <v>0.9683137738020342</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9841330724007309</v>
+        <v>0.9841933184626909</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>9634</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4609</v>
+        <v>4777</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17851</v>
+        <v>18193</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01278751309459608</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.006117347805162258</v>
+        <v>0.006341172440245814</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0236942599950992</v>
+        <v>0.02414858951654154</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>24</v>
@@ -1268,19 +1268,19 @@
         <v>24708</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15304</v>
+        <v>16640</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>34961</v>
+        <v>35632</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03191734778579002</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0197696924718922</v>
+        <v>0.02149577292203442</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04516253137602698</v>
+        <v>0.04602979887421363</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>33</v>
@@ -1289,19 +1289,19 @@
         <v>34342</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>24237</v>
+        <v>24145</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>47099</v>
+        <v>48401</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02248213673734832</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01586692759926911</v>
+        <v>0.01580668153730916</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03083390612430582</v>
+        <v>0.03168622619796576</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>937218</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>929580</v>
+        <v>930221</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>942042</v>
+        <v>941969</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9898688137967671</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9818021632458309</v>
+        <v>0.9824795160242118</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9949636782784473</v>
+        <v>0.9948875096490144</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>978</v>
@@ -1414,19 +1414,19 @@
         <v>1025480</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1011859</v>
+        <v>1012824</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1034066</v>
+        <v>1034406</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9748829156773856</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9619334789621005</v>
+        <v>0.9628510529271451</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9830452778177899</v>
+        <v>0.9833684623158173</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1877</v>
@@ -1435,19 +1435,19 @@
         <v>1962698</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1948689</v>
+        <v>1949520</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1972517</v>
+        <v>1974239</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9819818880009303</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9749730385723311</v>
+        <v>0.9753884347579928</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9868943485705051</v>
+        <v>0.9877562262203249</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>9592</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4768</v>
+        <v>4841</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17230</v>
+        <v>16589</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0101311862032329</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005036321721552626</v>
+        <v>0.005112490350985616</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01819783675416891</v>
+        <v>0.01752048397578849</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -1485,19 +1485,19 @@
         <v>26421</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17835</v>
+        <v>17495</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>40042</v>
+        <v>39077</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02511708432261442</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0169547221822101</v>
+        <v>0.01663153768418268</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03806652103789957</v>
+        <v>0.03714894707285493</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>35</v>
@@ -1506,19 +1506,19 @@
         <v>36013</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>26194</v>
+        <v>24472</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>50022</v>
+        <v>49191</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01801811199906962</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01310565142949502</v>
+        <v>0.01224377377967512</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02502696142766887</v>
+        <v>0.02461156524200741</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>3366862</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3350326</v>
+        <v>3350188</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3379199</v>
+        <v>3378725</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9865628540672277</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9817176140333566</v>
+        <v>0.9816771759586149</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9901780654445506</v>
+        <v>0.9900389981546076</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3171</v>
@@ -1631,19 +1631,19 @@
         <v>3420740</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3397370</v>
+        <v>3397443</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3441978</v>
+        <v>3439955</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9646860095421633</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9580953216572092</v>
+        <v>0.9581159101152427</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.970675415563794</v>
+        <v>0.970104925892195</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6323</v>
@@ -1652,19 +1652,19 @@
         <v>6787602</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6758135</v>
+        <v>6757315</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6812380</v>
+        <v>6811616</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9754149859971541</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9711804396324873</v>
+        <v>0.9710626161845307</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9789757238918145</v>
+        <v>0.9788660097509143</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>45857</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>33520</v>
+        <v>33994</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>62393</v>
+        <v>62531</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01343714593277233</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.009821934555449458</v>
+        <v>0.009961001845392527</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01828238596664388</v>
+        <v>0.01832282404138512</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>117</v>
@@ -1702,19 +1702,19 @@
         <v>125222</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>103984</v>
+        <v>106007</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>148592</v>
+        <v>148519</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03531399045783663</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02932458443620587</v>
+        <v>0.02989507410780497</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0419046783427907</v>
+        <v>0.04188408988475732</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>160</v>
@@ -1723,19 +1723,19 @@
         <v>171079</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>146301</v>
+        <v>147065</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>200546</v>
+        <v>201366</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02458501400284589</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02102427610818546</v>
+        <v>0.02113399024908574</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02881956036751269</v>
+        <v>0.02893738381546927</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>655004</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>643440</v>
+        <v>645019</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>663228</v>
+        <v>662556</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9721902018406489</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9550262763922096</v>
+        <v>0.9573694807244439</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9843963814749083</v>
+        <v>0.9833982242591137</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>628</v>
@@ -2088,19 +2088,19 @@
         <v>635504</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>623088</v>
+        <v>624074</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>645511</v>
+        <v>646479</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9457750689921642</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9272970464185754</v>
+        <v>0.9287650348364546</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9606681779264724</v>
+        <v>0.9621076146825311</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1262</v>
@@ -2109,19 +2109,19 @@
         <v>1290509</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1274952</v>
+        <v>1273813</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1303642</v>
+        <v>1302335</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.959000311158024</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9474392904011275</v>
+        <v>0.9465926934281914</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9687594128764768</v>
+        <v>0.9677883491488317</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>18737</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10513</v>
+        <v>11185</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30301</v>
+        <v>28722</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02780979815935112</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0156036185250917</v>
+        <v>0.01660177574088633</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0449737236077904</v>
+        <v>0.04263051927555612</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -2159,19 +2159,19 @@
         <v>36436</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26429</v>
+        <v>25461</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48852</v>
+        <v>47866</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05422493100783578</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03933182207352748</v>
+        <v>0.03789238531746884</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07270295358142463</v>
+        <v>0.07123496516354548</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>54</v>
@@ -2180,19 +2180,19 @@
         <v>55173</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>42040</v>
+        <v>43347</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>70730</v>
+        <v>71869</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04099968884197597</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03124058712352316</v>
+        <v>0.03221165085116839</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05256070959887294</v>
+        <v>0.05340730657180867</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>999826</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>988893</v>
+        <v>988095</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1006931</v>
+        <v>1006747</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9828680893419195</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9721196187613902</v>
+        <v>0.971335207557692</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9898524421960087</v>
+        <v>0.9896716548316742</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>926</v>
@@ -2305,19 +2305,19 @@
         <v>987545</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>972011</v>
+        <v>970773</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>999470</v>
+        <v>999441</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9553829917388769</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9403552213742883</v>
+        <v>0.9391568089792629</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9669200712427269</v>
+        <v>0.9668911717601117</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1856</v>
@@ -2326,19 +2326,19 @@
         <v>1987371</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1971035</v>
+        <v>1969649</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2002184</v>
+        <v>2002109</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9690155824382397</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9610507771974743</v>
+        <v>0.960374575462378</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9762382045870627</v>
+        <v>0.9762018031101536</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>17428</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10323</v>
+        <v>10507</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>28361</v>
+        <v>29159</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01713191065808056</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01014755780399139</v>
+        <v>0.01032834516832609</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02788038123860974</v>
+        <v>0.02866479244230802</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>43</v>
@@ -2376,19 +2376,19 @@
         <v>46119</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>34194</v>
+        <v>34223</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>61653</v>
+        <v>62891</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04461700826112313</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03307992875727299</v>
+        <v>0.03310882823988825</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05964477862571166</v>
+        <v>0.06084319102073693</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>59</v>
@@ -2397,19 +2397,19 @@
         <v>63546</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>48733</v>
+        <v>48808</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>79882</v>
+        <v>81268</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03098441756176033</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02376179541293731</v>
+        <v>0.0237981968898462</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03894922280252556</v>
+        <v>0.03962542453762179</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>752520</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>746473</v>
+        <v>746341</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>755546</v>
+        <v>755547</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9947134989408142</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.986720947496272</v>
+        <v>0.9865466814834922</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9987136659194524</v>
+        <v>0.9987153372680194</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>705</v>
@@ -2522,19 +2522,19 @@
         <v>751080</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>739528</v>
+        <v>740160</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>759357</v>
+        <v>759812</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9691675050987258</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9542612021941899</v>
+        <v>0.9550773359361089</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9798485773561615</v>
+        <v>0.9804350738621668</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1394</v>
@@ -2543,19 +2543,19 @@
         <v>1503599</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1489982</v>
+        <v>1491480</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1512200</v>
+        <v>1512466</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9817865855381683</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.972894949140783</v>
+        <v>0.9738733837141539</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9874025738847548</v>
+        <v>0.9875762547015623</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>3999</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10046</v>
+        <v>10178</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.005286501059185797</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001286334080547568</v>
+        <v>0.001284662731980587</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0132790525037281</v>
+        <v>0.01345331851650739</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -2593,19 +2593,19 @@
         <v>23894</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15617</v>
+        <v>15162</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>35446</v>
+        <v>34814</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03083249490127419</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02015142264383854</v>
+        <v>0.01956492613783324</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0457387978058089</v>
+        <v>0.04492266406389141</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>26</v>
@@ -2614,19 +2614,19 @@
         <v>27894</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>19293</v>
+        <v>19027</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>41511</v>
+        <v>40013</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01821341446183169</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0125974261152453</v>
+        <v>0.01242374529843725</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02710505085921698</v>
+        <v>0.02612661628584578</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>909130</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>898606</v>
+        <v>899294</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>917781</v>
+        <v>916909</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9760781730408276</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9647796747432871</v>
+        <v>0.9655175032552145</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9853660570872663</v>
+        <v>0.9844296682228545</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>917</v>
@@ -2739,19 +2739,19 @@
         <v>994922</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>979459</v>
+        <v>979176</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1007728</v>
+        <v>1009036</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9551612401143821</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9403166286638935</v>
+        <v>0.9400449505210139</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9674559844453542</v>
+        <v>0.9687115964756855</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1821</v>
@@ -2760,19 +2760,19 @@
         <v>1904052</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1883568</v>
+        <v>1885900</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1920038</v>
+        <v>1919760</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9650354866041324</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9546535078549453</v>
+        <v>0.9558358044799515</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9731376526408813</v>
+        <v>0.9729970150958513</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>22281</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13630</v>
+        <v>14502</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>32805</v>
+        <v>32117</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02392182695917242</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01463394291273369</v>
+        <v>0.01557033177714557</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.035220325256713</v>
+        <v>0.03448249674478578</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>40</v>
@@ -2810,19 +2810,19 @@
         <v>46705</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>33899</v>
+        <v>32591</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>62168</v>
+        <v>62451</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0448387598856179</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03254401555464581</v>
+        <v>0.03128840352431442</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05968337133610645</v>
+        <v>0.05995504947898602</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>62</v>
@@ -2831,19 +2831,19 @@
         <v>68986</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>53000</v>
+        <v>53278</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>89470</v>
+        <v>87138</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03496451339586756</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02686234735911879</v>
+        <v>0.02700298490414868</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04534649214505464</v>
+        <v>0.0441641955200485</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>3316481</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3298648</v>
+        <v>3300599</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3331239</v>
+        <v>3332099</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9815194190405333</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9762416092136781</v>
+        <v>0.9768191088141184</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9858870175708921</v>
+        <v>0.9861413766666732</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3176</v>
@@ -2956,19 +2956,19 @@
         <v>3369050</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3341466</v>
+        <v>3339709</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3391690</v>
+        <v>3392294</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9565174248277428</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.948685773943043</v>
+        <v>0.9481869664473789</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9629449636026979</v>
+        <v>0.9631164728167574</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6333</v>
@@ -2977,19 +2977,19 @@
         <v>6685532</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6654897</v>
+        <v>6655676</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6714637</v>
+        <v>6712605</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9687588793294427</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9643197136510422</v>
+        <v>0.9644327124931579</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9729763679956909</v>
+        <v>0.9726819110953216</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>62445</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>47687</v>
+        <v>46827</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>80278</v>
+        <v>78327</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01848058095946675</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01411298242910787</v>
+        <v>0.0138586233333268</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02375839078632188</v>
+        <v>0.02318089118588154</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>142</v>
@@ -3027,19 +3027,19 @@
         <v>153155</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>130515</v>
+        <v>129911</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>180739</v>
+        <v>182496</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04348257517225716</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03705503639730215</v>
+        <v>0.03688352718324269</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05131422605695739</v>
+        <v>0.05181303355262144</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>201</v>
@@ -3048,19 +3048,19 @@
         <v>215599</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>186494</v>
+        <v>188526</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>246234</v>
+        <v>245455</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03124112067055734</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02702363200430916</v>
+        <v>0.02731808890467847</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03568028634895784</v>
+        <v>0.03556728750684211</v>
       </c>
     </row>
     <row r="18">
